--- a/example.xlsx
+++ b/example.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexlee/Documents/Auto Data GUI/auto-data-gui/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Auto data analyser\auto-data-gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{113A5FFE-3A5D-934C-BC57-5A5A9C3E7E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07F6D5-700E-40B1-AE80-49673590A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="3860" windowWidth="28040" windowHeight="17440" xr2:uid="{4AC9FB83-8D40-F148-A791-9AEEEB16C5E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4AC9FB83-8D40-F148-A791-9AEEEB16C5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>variable 1</t>
   </si>
@@ -43,15 +45,30 @@
   <si>
     <t>result</t>
   </si>
+  <si>
+    <t>variable 3</t>
+  </si>
+  <si>
+    <t>variable 4</t>
+  </si>
+  <si>
+    <t>variable 5</t>
+  </si>
+  <si>
+    <t>variable 6</t>
+  </si>
+  <si>
+    <t>variable 7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +79,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,11 +109,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -406,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC816741-33EB-0246-905F-B237D37AE37A}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,250 +445,706 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <f ca="1">RAND()</f>
+        <v>0.65223588201319127</v>
       </c>
       <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <f>A2/B2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B2:G2" ca="1" si="0">RAND()</f>
+        <v>0.24748412438167444</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52430723305753169</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58432811700605214</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68454675369137441</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.165094325820907E-3</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81582117518299979</v>
+      </c>
+      <c r="H2" s="1">
+        <f ca="1">SUM(A2:G2)</f>
+        <v>3.5138883796586442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <f t="shared" ref="A3:G21" ca="1" si="1">RAND()</f>
+        <v>0.76079686422094839</v>
       </c>
       <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C21" si="0">A3/B3</f>
-        <v>0.10526315789473684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86797769090614951</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22346125003479045</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84388308039944882</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.585612534771632</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.99628540280703159</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63548652957930085</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H21" ca="1" si="2">SUM(A3:G3)</f>
+        <v>4.9135033527193022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58807737978934349</v>
       </c>
       <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15094173081722773</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54298732377852876</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3631189815363195</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4660819974564735</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50607584675230843</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66871212696990556</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2859953871001064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40904242720607464</v>
       </c>
       <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23529411764705882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56461229878197938</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58870092276296948</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12559695014854189</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.4303898256025134E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35819524769528277</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97970466087428421</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0342828972947347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26520423575640295</v>
       </c>
       <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36902286224830372</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79545834885088496</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85392590264736057</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.553312703352695</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89845593738398599</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54568083488665831</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.2810608251262918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38215281940603296</v>
       </c>
       <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34692060216243614</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91793190285974147</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.3454958386939069E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54187432179645012</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95311566819701432</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28209836899748375</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5175486418060977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21916087583694743</v>
       </c>
       <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.531359444003439E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5438420198046604</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63242232605080095</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80833272191683203</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5430720561735813E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39282870514526957</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7373309637562806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56633346994023259</v>
       </c>
       <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42989034744310695</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7891747583638824</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82511681538448012</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98358409667300262</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93960032630017321</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11895047534691539</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.6526502894517936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93853520462803897</v>
       </c>
       <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53453984494826223</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72108510325333641</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58606721064431166</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54729459010000592</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8008831404735679</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33303839812535474</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4614434921728776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57798525929900768</v>
       </c>
       <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92383669280217973</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26863749597524733</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28528412977450957</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92198628359979917</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16246163215832299</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3963374186815426</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.536528912290609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97099901736038985</v>
       </c>
       <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38212900253540349</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71867978175308123</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87339258014588472</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2197181325432154E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37074709213667412</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70778368881345965</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0659283440703256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78158752296676148</v>
       </c>
       <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45578849901271667</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12110942598736585</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64027326376090843</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7837199786273078</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71799419054167402</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26072465759785113</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.761197538494585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75113030408145298</v>
       </c>
       <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72597787633196431</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82893060759037207</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36586511075469619</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10432499949932816</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95186420350449785</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18573402759864621</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9138271293609579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.485207616517096E-2</v>
       </c>
       <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32900916341111808</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26900302699799794</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69369373657819122</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42823241435282311</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87085791077560681</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.4791214386376601E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7304395426672849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19387488904909933</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33749428669859183</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64004659700157984</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70482095061642169</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9538992490796945E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75811663986439004</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85996698455313214</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5238593402740115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36207337540618034</v>
       </c>
       <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73235409158408116</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37326169597151837</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14386860457731021</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4775424068464353E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48506645915980495</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75525405011412794</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8966537008814877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51417014976136122</v>
       </c>
       <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77642686454900578</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66715063228569216</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16446273402727862</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7296057792694755E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96262376934330862</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8599021791308803</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.002032386890221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88708300067845192</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3875623574204502</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31377021725116194</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39033791068202661</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.7610261431712808E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18528908690219992</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8942051537553698</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1558579881213733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.7745930810071417E-3</v>
       </c>
       <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89871660449320201</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96654816716746872</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50735006499038771</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80884798053720741</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.6919483103057296E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27011827081341977</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5362751641857502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86675854381745898</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59855713302385827</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84620846063080557</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97989660665219569</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71554283272098462</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74785973339597245</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29190783553686406</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0467311457781392</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Auto data analyser\auto-data-gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07F6D5-700E-40B1-AE80-49673590A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0374BBF-26DC-4E4C-9947-3AF0CD41915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4AC9FB83-8D40-F148-A791-9AEEEB16C5E8}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -465,682 +465,542 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f ca="1">RAND()</f>
-        <v>0.65223588201319127</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G2" ca="1" si="0">RAND()</f>
-        <v>0.24748412438167444</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52430723305753169</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58432811700605214</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68454675369137441</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.165094325820907E-3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81582117518299979</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <f ca="1">SUM(A2:G2)</f>
-        <v>3.5138883796586442</v>
+        <f>SUM(A2:G2)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:G21" ca="1" si="1">RAND()</f>
-        <v>0.76079686422094839</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86797769090614951</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22346125003479045</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.84388308039944882</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.585612534771632</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.99628540280703159</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63548652957930085</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H21" ca="1" si="2">SUM(A3:G3)</f>
-        <v>4.9135033527193022</v>
+        <f t="shared" ref="H3:H21" si="0">SUM(A3:G3)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58807737978934349</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15094173081722773</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54298732377852876</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3631189815363195</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4660819974564735</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.50607584675230843</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66871212696990556</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.2859953871001064</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.40904242720607464</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56461229878197938</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58870092276296948</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12559695014854189</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4303898256025134E-3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.35819524769528277</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.97970466087428421</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.0342828972947347</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26520423575640295</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36902286224830372</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.79545834885088496</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.85392590264736057</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.553312703352695</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89845593738398599</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54568083488665831</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.2810608251262918</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38215281940603296</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34692060216243614</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.91793190285974147</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.3454958386939069E-2</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54187432179645012</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95311566819701432</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28209836899748375</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.5175486418060977</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21916087583694743</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.531359444003439E-2</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5438420198046604</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63242232605080095</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.80833272191683203</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.5430720561735813E-2</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39282870514526957</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7373309637562806</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56633346994023259</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.42989034744310695</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.7891747583638824</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.82511681538448012</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.98358409667300262</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.93960032630017321</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11895047534691539</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.6526502894517936</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.93853520462803897</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.53453984494826223</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72108510325333641</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58606721064431166</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54729459010000592</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8008831404735679</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33303839812535474</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.4614434921728776</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.57798525929900768</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.92383669280217973</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26863749597524733</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28528412977450957</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.92198628359979917</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16246163215832299</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3963374186815426</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.536528912290609</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.97099901736038985</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38212900253540349</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71867978175308123</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.87339258014588472</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2197181325432154E-2</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37074709213667412</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.70778368881345965</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.0659283440703256</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.78158752296676148</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.45578849901271667</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12110942598736585</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64027326376090843</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.7837199786273078</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71799419054167402</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26072465759785113</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.761197538494585</v>
+        <f t="shared" si="0"/>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75113030408145298</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72597787633196431</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.82893060759037207</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36586511075469619</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10432499949932816</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95186420350449785</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18573402759864621</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.9138271293609579</v>
+        <f t="shared" si="0"/>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.485207616517096E-2</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32900916341111808</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26900302699799794</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.69369373657819122</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.42823241435282311</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.87085791077560681</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4791214386376601E-2</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7304395426672849</v>
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19387488904909933</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33749428669859183</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64004659700157984</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.70482095061642169</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9538992490796945E-2</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75811663986439004</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.85996698455313214</v>
+        <v>15</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.5238593402740115</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36207337540618034</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.73235409158408116</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37326169597151837</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14386860457731021</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4775424068464353E-2</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.48506645915980495</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75525405011412794</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8966537008814877</v>
+        <f t="shared" si="0"/>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51417014976136122</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77642686454900578</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66715063228569216</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16446273402727862</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.7296057792694755E-2</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.96262376934330862</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8599021791308803</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.002032386890221</v>
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.88708300067845192</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3875623574204502</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31377021725116194</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39033791068202661</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.7610261431712808E-2</v>
+        <v>18</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18528908690219992</v>
+        <v>18</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8942051537553698</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1558579881213733</v>
+        <f t="shared" si="0"/>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7745930810071417E-3</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89871660449320201</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.96654816716746872</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.50735006499038771</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.80884798053720741</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6919483103057296E-2</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27011827081341977</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.5362751641857502</v>
+        <f t="shared" si="0"/>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86675854381745898</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.59855713302385827</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.84620846063080557</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.97989660665219569</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71554283272098462</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.74785973339597245</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.29190783553686406</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0467311457781392</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Auto data analyser\auto-data-gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0374BBF-26DC-4E4C-9947-3AF0CD41915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E723CA7-76DD-46A2-A1E3-7B4A7AEC1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4AC9FB83-8D40-F148-A791-9AEEEB16C5E8}"/>
+    <workbookView xWindow="2730" yWindow="555" windowWidth="15990" windowHeight="13155" xr2:uid="{4AC9FB83-8D40-F148-A791-9AEEEB16C5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -465,542 +465,682 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <f ca="1">RAND()</f>
+        <v>0.38215456488746991</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f t="shared" ref="B2:G2" ca="1" si="0">RAND()</f>
+        <v>0.33899371875002737</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59150987566960178</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8094762870566141E-2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86851996802747067</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78965003547334134</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32087400081969364</v>
       </c>
       <c r="H2" s="1">
-        <f>SUM(A2:G2)</f>
-        <v>7</v>
+        <f ca="1">SUM(A2:G2)</f>
+        <v>3.3497969264981711</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <f t="shared" ref="A3:G21" ca="1" si="1">RAND()</f>
+        <v>0.95370212697065049</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3215461727401967</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93961611054164107</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96841534280641683</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0174885842603314E-2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2117966808419163E-2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62346416386007764</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H21" si="0">SUM(A3:G3)</f>
-        <v>14</v>
+        <f t="shared" ref="H3:H21" ca="1" si="2">SUM(A3:G3)</f>
+        <v>3.8790367695700052</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.5578416679886313E-2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0580124344786954E-2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43002180719669236</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51829035518144484</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16569185295369926</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74633303773282322</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2290793650995826</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2055749591889153</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56784383858736442</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6105679233052792</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28682483781151902</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5209624215289872</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18252639242528057</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81139444327672927</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38368457151685009</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3638044284520094</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23853912446304981</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42582426054713962</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88424636534201795</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89903682486385994</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.7196187439624504E-2</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2622256848502692</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63383187926309303</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3909003267690538</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58760823805145146</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8795863390573484</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72494083431018741</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67268490731802277</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85380143589515456</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15843126150806752</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9659474148565721</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8430004309968044</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50525781986054641</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27456231273734055</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82222902326153524</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20505876870331252</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55798108276246106</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94862201121242962</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33266404346537304</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6463750620029982</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82006350269849393</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73997140354034918</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43422735370267262</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26551154189230997</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49854962540034697</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3562257382736298</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.3845685383673532E-2</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1883948508914761</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37355900634885675</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93069440795120861</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89548658660838232</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53717827520146322</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63167924689195487</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85622837203796187</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18981281811791662</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4146387131577445</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86444704228587621</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17056269479324326</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25654519283212462</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34222618502756064</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14770431481254187</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44662287097684461</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79725162690807472</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0253599276362655</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94319146498281825</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98482390094952454</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.81073287468464383</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74036246241921666</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50296920299513437</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61419207555212341</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52303360137780575</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1193055829612675</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4981289128732983</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4539784534073803</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4484478301037943</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74230845395723644</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32476689613852305</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58365144578355665</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69690817155226359</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7481901638160524</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47786272449513023</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9354952790413511</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88721621933468187</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90454824092598718</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26177839866823183</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78528419241436975</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2744309739752131</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.5266160288549653</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49421340750980836</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88043734279554553</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40364611766620051</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54628233988557184</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29913245940237287</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30611332221987642</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25910076835374973</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1889257578331249</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56729277452681837</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7925871263526818</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72196794891588278</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71565929164339526</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20413162683850461</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40554283623291731</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98952528730742384</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.3967068918176242</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25355809973026877</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64795960941861064</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15629177835677244</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.9802589587013215E-2</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55591482804766645</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46296462422215146</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53917501612077756</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6556665454832604</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38178318458387006</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7253133001368538</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49357173864397452</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6307804224042792E-2</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13148866317384345</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21565076851829479</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57479606807444694</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>119</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5689115273553265</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83983697301224913</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34108226842754097</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89299717892329267</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83335944250712934</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78160442619067283</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9802615737195407</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9506744196959811</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>126</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6198162824764069</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45727158162210702</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37709461950343914</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6844367508281333E-2</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.976610279252351</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76767655771113374</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6927414206363085</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12851909371673209</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>133</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4167579199503528</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46948497286193158</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19549065670934296</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27405043317753131</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60519770518562432</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27286064336701554</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65578525531811172</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41658019750070607</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8894498641202637</v>
       </c>
     </row>
   </sheetData>
